--- a/biology/Médecine/Ludwig_Seitz/Ludwig_Seitz.xlsx
+++ b/biology/Médecine/Ludwig_Seitz/Ludwig_Seitz.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ludwig Seitz, né le 24 mai 1872 et mort le 19 juin 1961 à Pfaffenhofen an der Roth (Allemagne), est un professeur de gynécologie-obstétrique allemand.
 Durant le régime nazi, il fut impliqué dans le programme eugénique de stérilisation forcée.
@@ -512,7 +524,9 @@
           <t>Carrière universitaire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ludwig Seitz fréquente le lycée St. Stephan à Augsbourg, puis il étudie la médecine successivement à Munich, Berlin et Heidelberg.
 En 1898, il réussit son examen d'État à l'Université Louis-et-Maximilien de Munich. Il obtient son doctorat la même année avec une thèse sur l'influence de la syphilis sur la grossesse.
@@ -547,11 +561,13 @@
           <t>National-socialisme</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ludwig Seitz n'était pas adhérent au parti national-socialiste[1]. Lors de l'arrivée du parti au pouvoir en 1933, la plupart des gynécologues et obstétriciens allemands ont adhéré au programme eugénique de santé publique. Ludwig Seitz y était favorable[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ludwig Seitz n'était pas adhérent au parti national-socialiste. Lors de l'arrivée du parti au pouvoir en 1933, la plupart des gynécologues et obstétriciens allemands ont adhéré au programme eugénique de santé publique. Ludwig Seitz y était favorable.
 En tant que chef de la clinique des femmes de l'Université de Francfort, il a été impliqué dans des stérilisations forcées à but eugénique, légalisées par la Loi allemande sur la stérilisation forcée du 14 juillet 1933.
-En 1933, lors du congrès de la Société allemande de gynécologie (de) à Berlin, il a présenté en détail des méthodes de stérilisation et d'avortements à but eugéniques[3].
+En 1933, lors du congrès de la Société allemande de gynécologie (de) à Berlin, il a présenté en détail des méthodes de stérilisation et d'avortements à but eugéniques.
 Le 21 juillet 1938, Ludwig Seitz a été honoré par Adolf Hitler et Hermann Göring pour ses 40 années de carrière.
 </t>
         </is>
@@ -581,7 +597,9 @@
           <t>Editeur</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">En 1925, Ludwig Seitz est membre du comité de rédaction de la revue Monatsschrift für Geburtshilfe und Gynäkologie (Revue mensuelle d'obstétrique et de gynécologie). En 1933, il est co-éditeur et directeur éditorial. Il occupe ce poste jusqu'en 1938, date à laquelle la revue s'exile en Suisse en raison de son appartenance à la maison d'édition S.Karger, dont les propriétaires sont juifs.
 En janvier 1939, il est co-éditeur Schriftwalter (éditeur national-socialiste) de la revue nouvellement crée Geburtshilfe und Frauenheilkunde , Ergebnisse der Forschung für die Praxis (Obstétrique et gynécologie, résultats de recherche pour une application pratique)
@@ -613,7 +631,9 @@
           <t>Société savante</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">En 1931, Ludwig Seitz fut le 22ème président de la Société allemande de gynécologie et d'obstétrique (de), succédant au professeur Hugo Sellheim. La même année, il a présidé le congrès de l'organisation à Francfort-sur-le-Main.
 </t>
